--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,236 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>фывфы</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>46134</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>41414</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Здоровье</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>фывфы</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>46134</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>41414</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Здоровье</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>фывфы</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>46134</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>41414</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Здоровье</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>фывфы</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>46134</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>41414</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Здоровье</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>фывфы</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>46134</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>41414</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Здоровье</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>фывфы</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>46134</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>41414</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Здоровье</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>фывфы</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>46134</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>41414</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Здоровье</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>фывфы</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>46134</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>41414</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Здоровье</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>фывфы</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>46134</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>41414</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Здоровье</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>фывфы</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>46134</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>41414</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Здоровье</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -2,29 +2,37 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="События" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -45,15 +53,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -416,10 +428,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -445,12 +457,17 @@
           <t>date</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>start_time</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>end_time</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>category</t>
         </is>
@@ -473,7 +490,7 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>События</t>
         </is>
@@ -496,7 +513,7 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>События</t>
         </is>
@@ -519,7 +536,7 @@
           <t>41414</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Здоровье</t>
         </is>
@@ -542,7 +559,7 @@
           <t>41414</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Здоровье</t>
         </is>
@@ -565,7 +582,7 @@
           <t>41414</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Здоровье</t>
         </is>
@@ -588,7 +605,7 @@
           <t>41414</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Здоровье</t>
         </is>
@@ -611,7 +628,7 @@
           <t>41414</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Здоровье</t>
         </is>
@@ -634,7 +651,7 @@
           <t>41414</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Здоровье</t>
         </is>
@@ -657,7 +674,7 @@
           <t>41414</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Здоровье</t>
         </is>
@@ -680,7 +697,7 @@
           <t>41414</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Здоровье</t>
         </is>
@@ -703,7 +720,7 @@
           <t>41414</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Здоровье</t>
         </is>
@@ -726,13 +743,69 @@
           <t>41414</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Здоровье</t>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Здоровье</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>пам пам</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>45693</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Обучение</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>bob</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" s="3" t="n">
+        <v>45695</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Работа</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E1" display="https://x.com/i/grok?text=start_time" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F1" display="https://x.com/i/grok?text=end_time" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>